--- a/Results/Results Z80 CPU Tester.xlsx
+++ b/Results/Results Z80 CPU Tester.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F64B80-386C-4797-96EF-599B89EEFB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2EC83D-ADAC-4364-B1CE-EC8BAB56DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1560" windowWidth="35460" windowHeight="18510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="1620" windowWidth="35460" windowHeight="18510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testergebnisse" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="332">
   <si>
     <t>ZILOG</t>
   </si>
@@ -2679,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT407"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8391,30 +8391,14 @@
         <v>4</v>
       </c>
       <c r="M57" s="19"/>
-      <c r="N57" s="14">
-        <v>0</v>
-      </c>
-      <c r="O57" s="18">
-        <v>0</v>
-      </c>
-      <c r="P57" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q57" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="R57" s="18">
-        <v>0</v>
-      </c>
-      <c r="S57" s="18">
-        <v>0</v>
-      </c>
-      <c r="T57" s="18">
-        <v>0</v>
-      </c>
-      <c r="U57" s="18">
-        <v>0</v>
-      </c>
+      <c r="N57" s="14"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
       <c r="V57" s="19"/>
       <c r="W57" s="162"/>
       <c r="X57" s="163"/>
@@ -8437,16 +8421,16 @@
       <c r="AO57" s="26"/>
       <c r="AP57" s="38"/>
       <c r="AQ57" s="54"/>
-      <c r="AR57" s="91" t="str">
+      <c r="AR57" s="91" t="e">
         <f>VLOOKUP($AT57,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS57" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT57" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="58" spans="1:46" ht="18.75">
@@ -8484,30 +8468,14 @@
         <v>4</v>
       </c>
       <c r="M58" s="28"/>
-      <c r="N58" s="22">
-        <v>0</v>
-      </c>
-      <c r="O58" s="26">
-        <v>0</v>
-      </c>
-      <c r="P58" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q58" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R58" s="26">
-        <v>0</v>
-      </c>
-      <c r="S58" s="26">
-        <v>0</v>
-      </c>
-      <c r="T58" s="26">
-        <v>0</v>
-      </c>
-      <c r="U58" s="26">
-        <v>0</v>
-      </c>
+      <c r="N58" s="22"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
       <c r="V58" s="28"/>
       <c r="W58" s="162"/>
       <c r="X58" s="163"/>
@@ -8530,16 +8498,16 @@
       <c r="AO58" s="26"/>
       <c r="AP58" s="38"/>
       <c r="AQ58" s="54"/>
-      <c r="AR58" s="90" t="str">
+      <c r="AR58" s="90" t="e">
         <f>VLOOKUP($AT58,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS58" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT58" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:46" ht="18.75">
@@ -8577,30 +8545,14 @@
         <v>4</v>
       </c>
       <c r="M59" s="28"/>
-      <c r="N59" s="22">
-        <v>0</v>
-      </c>
-      <c r="O59" s="26">
-        <v>0</v>
-      </c>
-      <c r="P59" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q59" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R59" s="26">
-        <v>0</v>
-      </c>
-      <c r="S59" s="26">
-        <v>0</v>
-      </c>
-      <c r="T59" s="26">
-        <v>0</v>
-      </c>
-      <c r="U59" s="27">
-        <v>0</v>
-      </c>
+      <c r="N59" s="22"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="27"/>
       <c r="V59" s="28"/>
       <c r="W59" s="162"/>
       <c r="X59" s="163"/>
@@ -8623,16 +8575,16 @@
       <c r="AO59" s="26"/>
       <c r="AP59" s="38"/>
       <c r="AQ59" s="54"/>
-      <c r="AR59" s="90" t="str">
+      <c r="AR59" s="90" t="e">
         <f>VLOOKUP($AT59,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS59" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT59" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:46" ht="18.75">
@@ -8670,30 +8622,14 @@
         <v>4</v>
       </c>
       <c r="M60" s="28"/>
-      <c r="N60" s="22">
-        <v>0</v>
-      </c>
-      <c r="O60" s="26">
-        <v>0</v>
-      </c>
-      <c r="P60" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q60" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R60" s="26">
-        <v>0</v>
-      </c>
-      <c r="S60" s="26">
-        <v>0</v>
-      </c>
-      <c r="T60" s="26">
-        <v>0</v>
-      </c>
-      <c r="U60" s="27">
-        <v>0</v>
-      </c>
+      <c r="N60" s="22"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="27"/>
       <c r="V60" s="28"/>
       <c r="W60" s="162"/>
       <c r="X60" s="163"/>
@@ -8716,16 +8652,16 @@
       <c r="AO60" s="26"/>
       <c r="AP60" s="38"/>
       <c r="AQ60" s="54"/>
-      <c r="AR60" s="90" t="str">
+      <c r="AR60" s="90" t="e">
         <f>VLOOKUP($AT60,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS60" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT60" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="61" spans="1:46" ht="18.75">
@@ -8763,30 +8699,14 @@
         <v>4</v>
       </c>
       <c r="M61" s="28"/>
-      <c r="N61" s="22">
-        <v>0</v>
-      </c>
-      <c r="O61" s="26">
-        <v>0</v>
-      </c>
-      <c r="P61" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q61" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R61" s="26">
-        <v>0</v>
-      </c>
-      <c r="S61" s="26">
-        <v>0</v>
-      </c>
-      <c r="T61" s="26">
-        <v>0</v>
-      </c>
-      <c r="U61" s="27">
-        <v>0</v>
-      </c>
+      <c r="N61" s="22"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="27"/>
       <c r="V61" s="28"/>
       <c r="W61" s="162"/>
       <c r="X61" s="163"/>
@@ -8809,16 +8729,16 @@
       <c r="AO61" s="26"/>
       <c r="AP61" s="38"/>
       <c r="AQ61" s="54"/>
-      <c r="AR61" s="90" t="str">
+      <c r="AR61" s="90" t="e">
         <f>VLOOKUP($AT61,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS61" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT61" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:46" ht="18.75">
@@ -8856,30 +8776,14 @@
         <v>4</v>
       </c>
       <c r="M62" s="28"/>
-      <c r="N62" s="22">
-        <v>0</v>
-      </c>
-      <c r="O62" s="26">
-        <v>0</v>
-      </c>
-      <c r="P62" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q62" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R62" s="26">
-        <v>0</v>
-      </c>
-      <c r="S62" s="26">
-        <v>0</v>
-      </c>
-      <c r="T62" s="26">
-        <v>0</v>
-      </c>
-      <c r="U62" s="26">
-        <v>0</v>
-      </c>
+      <c r="N62" s="22"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="26"/>
       <c r="V62" s="28"/>
       <c r="W62" s="162"/>
       <c r="X62" s="163"/>
@@ -8902,16 +8806,16 @@
       <c r="AO62" s="26"/>
       <c r="AP62" s="38"/>
       <c r="AQ62" s="54"/>
-      <c r="AR62" s="90" t="str">
+      <c r="AR62" s="90" t="e">
         <f>VLOOKUP($AT62,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS62" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT62" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:46" ht="18.75">
@@ -8949,30 +8853,14 @@
         <v>4</v>
       </c>
       <c r="M63" s="28"/>
-      <c r="N63" s="22">
-        <v>0</v>
-      </c>
-      <c r="O63" s="26">
-        <v>0</v>
-      </c>
-      <c r="P63" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q63" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R63" s="26">
-        <v>0</v>
-      </c>
-      <c r="S63" s="26">
-        <v>0</v>
-      </c>
-      <c r="T63" s="26">
-        <v>0</v>
-      </c>
-      <c r="U63" s="26">
-        <v>0</v>
-      </c>
+      <c r="N63" s="22"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="26"/>
       <c r="V63" s="28"/>
       <c r="W63" s="162"/>
       <c r="X63" s="163"/>
@@ -8995,16 +8883,16 @@
       <c r="AO63" s="26"/>
       <c r="AP63" s="38"/>
       <c r="AQ63" s="54"/>
-      <c r="AR63" s="90" t="str">
+      <c r="AR63" s="90" t="e">
         <f>VLOOKUP($AT63,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS63" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT63" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:46" ht="18.75">
@@ -9042,30 +8930,14 @@
         <v>4</v>
       </c>
       <c r="M64" s="28"/>
-      <c r="N64" s="22">
-        <v>0</v>
-      </c>
-      <c r="O64" s="26">
-        <v>0</v>
-      </c>
-      <c r="P64" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q64" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R64" s="26">
-        <v>0</v>
-      </c>
-      <c r="S64" s="26">
-        <v>0</v>
-      </c>
-      <c r="T64" s="26">
-        <v>0</v>
-      </c>
-      <c r="U64" s="27">
-        <v>0</v>
-      </c>
+      <c r="N64" s="22"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="26"/>
+      <c r="U64" s="27"/>
       <c r="V64" s="28"/>
       <c r="W64" s="162"/>
       <c r="X64" s="163"/>
@@ -9088,16 +8960,16 @@
       <c r="AO64" s="26"/>
       <c r="AP64" s="38"/>
       <c r="AQ64" s="54"/>
-      <c r="AR64" s="90" t="str">
+      <c r="AR64" s="90" t="e">
         <f>VLOOKUP($AT64,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS64" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT64" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:46" ht="18.75">
@@ -9135,30 +9007,14 @@
         <v>4</v>
       </c>
       <c r="M65" s="28"/>
-      <c r="N65" s="22">
-        <v>0</v>
-      </c>
-      <c r="O65" s="26">
-        <v>0</v>
-      </c>
-      <c r="P65" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q65" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R65" s="26">
-        <v>0</v>
-      </c>
-      <c r="S65" s="26">
-        <v>0</v>
-      </c>
-      <c r="T65" s="26">
-        <v>0</v>
-      </c>
-      <c r="U65" s="27">
-        <v>0</v>
-      </c>
+      <c r="N65" s="22"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="26"/>
+      <c r="T65" s="26"/>
+      <c r="U65" s="27"/>
       <c r="V65" s="28"/>
       <c r="W65" s="162"/>
       <c r="X65" s="163"/>
@@ -9181,16 +9037,16 @@
       <c r="AO65" s="26"/>
       <c r="AP65" s="38"/>
       <c r="AQ65" s="54"/>
-      <c r="AR65" s="90" t="str">
+      <c r="AR65" s="90" t="e">
         <f>VLOOKUP($AT65,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS65" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT65" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:46" ht="18.75">
@@ -9228,30 +9084,14 @@
         <v>4</v>
       </c>
       <c r="M66" s="28"/>
-      <c r="N66" s="22">
-        <v>0</v>
-      </c>
-      <c r="O66" s="26">
-        <v>0</v>
-      </c>
-      <c r="P66" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q66" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R66" s="26">
-        <v>0</v>
-      </c>
-      <c r="S66" s="26">
-        <v>0</v>
-      </c>
-      <c r="T66" s="26">
-        <v>0</v>
-      </c>
-      <c r="U66" s="27">
-        <v>0</v>
-      </c>
+      <c r="N66" s="22"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="26"/>
+      <c r="S66" s="26"/>
+      <c r="T66" s="26"/>
+      <c r="U66" s="27"/>
       <c r="V66" s="28"/>
       <c r="W66" s="162"/>
       <c r="X66" s="163"/>
@@ -9274,16 +9114,16 @@
       <c r="AO66" s="26"/>
       <c r="AP66" s="38"/>
       <c r="AQ66" s="54"/>
-      <c r="AR66" s="90" t="str">
+      <c r="AR66" s="90" t="e">
         <f>VLOOKUP($AT66,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS66" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT66" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:46" ht="18.75">
@@ -9321,30 +9161,14 @@
         <v>4</v>
       </c>
       <c r="M67" s="28"/>
-      <c r="N67" s="22">
-        <v>0</v>
-      </c>
-      <c r="O67" s="26">
-        <v>0</v>
-      </c>
-      <c r="P67" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q67" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R67" s="26">
-        <v>0</v>
-      </c>
-      <c r="S67" s="26">
-        <v>0</v>
-      </c>
-      <c r="T67" s="26">
-        <v>0</v>
-      </c>
-      <c r="U67" s="26">
-        <v>0</v>
-      </c>
+      <c r="N67" s="22"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="26"/>
+      <c r="U67" s="26"/>
       <c r="V67" s="28"/>
       <c r="W67" s="162"/>
       <c r="X67" s="163"/>
@@ -9367,16 +9191,16 @@
       <c r="AO67" s="26"/>
       <c r="AP67" s="38"/>
       <c r="AQ67" s="54"/>
-      <c r="AR67" s="90" t="str">
+      <c r="AR67" s="90" t="e">
         <f>VLOOKUP($AT67,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS67" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT67" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="68" spans="1:46" ht="18.75">
@@ -9414,30 +9238,14 @@
         <v>4</v>
       </c>
       <c r="M68" s="28"/>
-      <c r="N68" s="22">
-        <v>0</v>
-      </c>
-      <c r="O68" s="26">
-        <v>0</v>
-      </c>
-      <c r="P68" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q68" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R68" s="26">
-        <v>0</v>
-      </c>
-      <c r="S68" s="26">
-        <v>0</v>
-      </c>
-      <c r="T68" s="26">
-        <v>0</v>
-      </c>
-      <c r="U68" s="27">
-        <v>0</v>
-      </c>
+      <c r="N68" s="22"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="26"/>
+      <c r="T68" s="26"/>
+      <c r="U68" s="27"/>
       <c r="V68" s="28"/>
       <c r="W68" s="162"/>
       <c r="X68" s="163"/>
@@ -9460,16 +9268,16 @@
       <c r="AO68" s="26"/>
       <c r="AP68" s="38"/>
       <c r="AQ68" s="54"/>
-      <c r="AR68" s="90" t="str">
+      <c r="AR68" s="90" t="e">
         <f>VLOOKUP($AT68,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS68" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT68" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="69" spans="1:46" ht="18.75">
@@ -9507,30 +9315,14 @@
         <v>4</v>
       </c>
       <c r="M69" s="28"/>
-      <c r="N69" s="22">
-        <v>0</v>
-      </c>
-      <c r="O69" s="26">
-        <v>0</v>
-      </c>
-      <c r="P69" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q69" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R69" s="26">
-        <v>0</v>
-      </c>
-      <c r="S69" s="26">
-        <v>0</v>
-      </c>
-      <c r="T69" s="26">
-        <v>0</v>
-      </c>
-      <c r="U69" s="26">
-        <v>0</v>
-      </c>
+      <c r="N69" s="22"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="26"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="26"/>
       <c r="V69" s="28"/>
       <c r="W69" s="162"/>
       <c r="X69" s="163"/>
@@ -9553,16 +9345,16 @@
       <c r="AO69" s="26"/>
       <c r="AP69" s="38"/>
       <c r="AQ69" s="54"/>
-      <c r="AR69" s="90" t="str">
+      <c r="AR69" s="90" t="e">
         <f>VLOOKUP($AT69,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS69" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT69" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="70" spans="1:46" ht="18.75">
@@ -9600,30 +9392,14 @@
         <v>4</v>
       </c>
       <c r="M70" s="28"/>
-      <c r="N70" s="22">
-        <v>0</v>
-      </c>
-      <c r="O70" s="26">
-        <v>0</v>
-      </c>
-      <c r="P70" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q70" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R70" s="26">
-        <v>0</v>
-      </c>
-      <c r="S70" s="26">
-        <v>0</v>
-      </c>
-      <c r="T70" s="26">
-        <v>0</v>
-      </c>
-      <c r="U70" s="26">
-        <v>0</v>
-      </c>
+      <c r="N70" s="22"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26"/>
+      <c r="S70" s="26"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="26"/>
       <c r="V70" s="28"/>
       <c r="W70" s="162"/>
       <c r="X70" s="163"/>
@@ -9646,16 +9422,16 @@
       <c r="AO70" s="26"/>
       <c r="AP70" s="38"/>
       <c r="AQ70" s="54"/>
-      <c r="AR70" s="90" t="str">
+      <c r="AR70" s="90" t="e">
         <f>VLOOKUP($AT70,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS70" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT70" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:46" ht="18.75">
@@ -9691,30 +9467,14 @@
         <v>5</v>
       </c>
       <c r="M71" s="28"/>
-      <c r="N71" s="22">
-        <v>0</v>
-      </c>
-      <c r="O71" s="26">
-        <v>0</v>
-      </c>
-      <c r="P71" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q71" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R71" s="26">
-        <v>0</v>
-      </c>
-      <c r="S71" s="26">
-        <v>0</v>
-      </c>
-      <c r="T71" s="26">
-        <v>0</v>
-      </c>
-      <c r="U71" s="27">
-        <v>0</v>
-      </c>
+      <c r="N71" s="22"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="27"/>
       <c r="V71" s="28"/>
       <c r="W71" s="162"/>
       <c r="X71" s="163"/>
@@ -9737,16 +9497,16 @@
       <c r="AO71" s="26"/>
       <c r="AP71" s="38"/>
       <c r="AQ71" s="54"/>
-      <c r="AR71" s="90" t="str">
+      <c r="AR71" s="90" t="e">
         <f>VLOOKUP($AT71,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS71" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT71" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:46" ht="18.75">
@@ -9782,30 +9542,14 @@
         <v>4</v>
       </c>
       <c r="M72" s="28"/>
-      <c r="N72" s="22">
-        <v>0</v>
-      </c>
-      <c r="O72" s="26">
-        <v>0</v>
-      </c>
-      <c r="P72" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q72" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R72" s="26">
-        <v>0</v>
-      </c>
-      <c r="S72" s="26">
-        <v>0</v>
-      </c>
-      <c r="T72" s="26">
-        <v>0</v>
-      </c>
-      <c r="U72" s="27">
-        <v>0</v>
-      </c>
+      <c r="N72" s="22"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26"/>
+      <c r="S72" s="26"/>
+      <c r="T72" s="26"/>
+      <c r="U72" s="27"/>
       <c r="V72" s="28"/>
       <c r="W72" s="162"/>
       <c r="X72" s="163"/>
@@ -9828,16 +9572,16 @@
       <c r="AO72" s="26"/>
       <c r="AP72" s="38"/>
       <c r="AQ72" s="54"/>
-      <c r="AR72" s="90" t="str">
+      <c r="AR72" s="90" t="e">
         <f>VLOOKUP($AT72,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS72" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT72" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="73" spans="1:46" ht="18.75">
@@ -9873,30 +9617,14 @@
         <v>4</v>
       </c>
       <c r="M73" s="28"/>
-      <c r="N73" s="22">
-        <v>0</v>
-      </c>
-      <c r="O73" s="26">
-        <v>0</v>
-      </c>
-      <c r="P73" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q73" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R73" s="26">
-        <v>0</v>
-      </c>
-      <c r="S73" s="26">
-        <v>0</v>
-      </c>
-      <c r="T73" s="26">
-        <v>0</v>
-      </c>
-      <c r="U73" s="27">
-        <v>0</v>
-      </c>
+      <c r="N73" s="22"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="26"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="26"/>
+      <c r="U73" s="27"/>
       <c r="V73" s="28"/>
       <c r="W73" s="162"/>
       <c r="X73" s="163"/>
@@ -9919,16 +9647,16 @@
       <c r="AO73" s="26"/>
       <c r="AP73" s="38"/>
       <c r="AQ73" s="54"/>
-      <c r="AR73" s="90" t="str">
+      <c r="AR73" s="90" t="e">
         <f>VLOOKUP($AT73,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS73" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT73" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="74" spans="1:46" ht="18.75">
@@ -11189,58 +10917,24 @@
         <v>5</v>
       </c>
       <c r="M86" s="28"/>
-      <c r="N86" s="22">
-        <v>0</v>
-      </c>
-      <c r="O86" s="26">
-        <v>0</v>
-      </c>
-      <c r="P86" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q86" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R86" s="26">
-        <v>0</v>
-      </c>
-      <c r="S86" s="26">
-        <v>0</v>
-      </c>
-      <c r="T86" s="26">
-        <v>0</v>
-      </c>
-      <c r="U86" s="27">
-        <v>0</v>
-      </c>
+      <c r="N86" s="22"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
+      <c r="S86" s="26"/>
+      <c r="T86" s="26"/>
+      <c r="U86" s="27"/>
       <c r="V86" s="28"/>
-      <c r="W86" s="65">
-        <v>1</v>
-      </c>
-      <c r="X86" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y86" s="29">
-        <v>1</v>
-      </c>
-      <c r="Z86" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA86" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB86" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC86" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD86" s="31">
-        <v>1</v>
-      </c>
-      <c r="AE86" s="54" t="s">
-        <v>106</v>
-      </c>
+      <c r="W86" s="162"/>
+      <c r="X86" s="163"/>
+      <c r="Y86" s="163"/>
+      <c r="Z86" s="163"/>
+      <c r="AA86" s="163"/>
+      <c r="AB86" s="163"/>
+      <c r="AC86" s="163"/>
+      <c r="AD86" s="164"/>
+      <c r="AE86" s="54"/>
       <c r="AF86" s="28" t="s">
         <v>115</v>
       </c>
@@ -11275,16 +10969,16 @@
       <c r="AQ86" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="AR86" s="90" t="str">
+      <c r="AR86" s="90" t="e">
         <f>VLOOKUP($AT86,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS86" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT86" t="str">
         <f t="shared" si="11"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:46" ht="18.75">
@@ -11320,58 +11014,24 @@
         <v>5</v>
       </c>
       <c r="M87" s="28"/>
-      <c r="N87" s="22">
-        <v>0</v>
-      </c>
-      <c r="O87" s="26">
-        <v>0</v>
-      </c>
-      <c r="P87" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q87" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R87" s="26">
-        <v>0</v>
-      </c>
-      <c r="S87" s="26">
-        <v>0</v>
-      </c>
-      <c r="T87" s="26">
-        <v>0</v>
-      </c>
-      <c r="U87" s="26">
-        <v>0</v>
-      </c>
+      <c r="N87" s="22"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="26"/>
+      <c r="Q87" s="26"/>
+      <c r="R87" s="26"/>
+      <c r="S87" s="26"/>
+      <c r="T87" s="26"/>
+      <c r="U87" s="26"/>
       <c r="V87" s="28"/>
-      <c r="W87" s="65">
-        <v>1</v>
-      </c>
-      <c r="X87" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y87" s="29">
-        <v>1</v>
-      </c>
-      <c r="Z87" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA87" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB87" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC87" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD87" s="31">
-        <v>1</v>
-      </c>
-      <c r="AE87" s="54" t="s">
-        <v>106</v>
-      </c>
+      <c r="W87" s="162"/>
+      <c r="X87" s="163"/>
+      <c r="Y87" s="163"/>
+      <c r="Z87" s="163"/>
+      <c r="AA87" s="163"/>
+      <c r="AB87" s="163"/>
+      <c r="AC87" s="163"/>
+      <c r="AD87" s="164"/>
+      <c r="AE87" s="54"/>
       <c r="AF87" s="28" t="s">
         <v>115</v>
       </c>
@@ -11406,16 +11066,16 @@
       <c r="AQ87" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="AR87" s="90" t="str">
+      <c r="AR87" s="90" t="e">
         <f>VLOOKUP($AT87,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS87" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT87" t="str">
         <f t="shared" si="11"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:46" ht="18.75">
@@ -11451,58 +11111,24 @@
         <v>5</v>
       </c>
       <c r="M88" s="28"/>
-      <c r="N88" s="22">
-        <v>0</v>
-      </c>
-      <c r="O88" s="26">
-        <v>0</v>
-      </c>
-      <c r="P88" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q88" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R88" s="26">
-        <v>0</v>
-      </c>
-      <c r="S88" s="26">
-        <v>0</v>
-      </c>
-      <c r="T88" s="26">
-        <v>0</v>
-      </c>
-      <c r="U88" s="26">
-        <v>0</v>
-      </c>
+      <c r="N88" s="22"/>
+      <c r="O88" s="26"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="26"/>
+      <c r="S88" s="26"/>
+      <c r="T88" s="26"/>
+      <c r="U88" s="26"/>
       <c r="V88" s="28"/>
-      <c r="W88" s="65">
-        <v>1</v>
-      </c>
-      <c r="X88" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y88" s="29">
-        <v>1</v>
-      </c>
-      <c r="Z88" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA88" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB88" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC88" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD88" s="31">
-        <v>1</v>
-      </c>
-      <c r="AE88" s="54" t="s">
-        <v>106</v>
-      </c>
+      <c r="W88" s="162"/>
+      <c r="X88" s="163"/>
+      <c r="Y88" s="163"/>
+      <c r="Z88" s="163"/>
+      <c r="AA88" s="163"/>
+      <c r="AB88" s="163"/>
+      <c r="AC88" s="163"/>
+      <c r="AD88" s="164"/>
+      <c r="AE88" s="54"/>
       <c r="AF88" s="28" t="s">
         <v>115</v>
       </c>
@@ -11537,16 +11163,16 @@
       <c r="AQ88" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="AR88" s="90" t="str">
+      <c r="AR88" s="90" t="e">
         <f>VLOOKUP($AT88,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS88" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT88" t="str">
         <f t="shared" si="11"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:46" ht="18.75">
@@ -11584,58 +11210,24 @@
         <v>5</v>
       </c>
       <c r="M89" s="28"/>
-      <c r="N89" s="22">
-        <v>0</v>
-      </c>
-      <c r="O89" s="26">
-        <v>0</v>
-      </c>
-      <c r="P89" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q89" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R89" s="26">
-        <v>0</v>
-      </c>
-      <c r="S89" s="26">
-        <v>0</v>
-      </c>
-      <c r="T89" s="26">
-        <v>0</v>
-      </c>
-      <c r="U89" s="27">
-        <v>0</v>
-      </c>
+      <c r="N89" s="22"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="26"/>
+      <c r="S89" s="26"/>
+      <c r="T89" s="26"/>
+      <c r="U89" s="27"/>
       <c r="V89" s="28"/>
-      <c r="W89" s="65">
-        <v>1</v>
-      </c>
-      <c r="X89" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y89" s="29">
-        <v>1</v>
-      </c>
-      <c r="Z89" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA89" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB89" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC89" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD89" s="31">
-        <v>1</v>
-      </c>
-      <c r="AE89" s="54" t="s">
-        <v>106</v>
-      </c>
+      <c r="W89" s="162"/>
+      <c r="X89" s="163"/>
+      <c r="Y89" s="163"/>
+      <c r="Z89" s="163"/>
+      <c r="AA89" s="163"/>
+      <c r="AB89" s="163"/>
+      <c r="AC89" s="163"/>
+      <c r="AD89" s="164"/>
+      <c r="AE89" s="54"/>
       <c r="AF89" s="28" t="s">
         <v>115</v>
       </c>
@@ -11670,16 +11262,16 @@
       <c r="AQ89" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="AR89" s="90" t="str">
+      <c r="AR89" s="90" t="e">
         <f>VLOOKUP($AT89,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS89" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT89" t="str">
         <f t="shared" si="11"/>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:46" ht="18.75">
@@ -11717,58 +11309,24 @@
         <v>5</v>
       </c>
       <c r="M90" s="28"/>
-      <c r="N90" s="22">
-        <v>0</v>
-      </c>
-      <c r="O90" s="26">
-        <v>0</v>
-      </c>
-      <c r="P90" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q90" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="R90" s="26">
-        <v>0</v>
-      </c>
-      <c r="S90" s="26">
-        <v>0</v>
-      </c>
-      <c r="T90" s="26">
-        <v>0</v>
-      </c>
-      <c r="U90" s="27">
-        <v>0</v>
-      </c>
+      <c r="N90" s="22"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="26"/>
+      <c r="R90" s="26"/>
+      <c r="S90" s="26"/>
+      <c r="T90" s="26"/>
+      <c r="U90" s="27"/>
       <c r="V90" s="28"/>
-      <c r="W90" s="65">
-        <v>1</v>
-      </c>
-      <c r="X90" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y90" s="29">
-        <v>1</v>
-      </c>
-      <c r="Z90" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA90" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB90" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC90" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD90" s="31">
-        <v>1</v>
-      </c>
-      <c r="AE90" s="54" t="s">
-        <v>106</v>
-      </c>
+      <c r="W90" s="162"/>
+      <c r="X90" s="163"/>
+      <c r="Y90" s="163"/>
+      <c r="Z90" s="163"/>
+      <c r="AA90" s="163"/>
+      <c r="AB90" s="163"/>
+      <c r="AC90" s="163"/>
+      <c r="AD90" s="164"/>
+      <c r="AE90" s="54"/>
       <c r="AF90" s="28" t="s">
         <v>115</v>
       </c>
@@ -11803,16 +11361,16 @@
       <c r="AQ90" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="AR90" s="90" t="str">
+      <c r="AR90" s="90" t="e">
         <f>VLOOKUP($AT90,Auswertung!$A$2:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
       <c r="AS90" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT90" t="str">
         <f t="shared" ref="AT90" si="12">R90&amp;S90&amp;T90&amp;U90</f>
-        <v>0000</v>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:46" ht="18.75">
@@ -28595,55 +28153,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="W215:AD215"/>
-    <mergeCell ref="AI215:AP215"/>
-    <mergeCell ref="B210:D210"/>
-    <mergeCell ref="W210:AD210"/>
-    <mergeCell ref="AI210:AP210"/>
-    <mergeCell ref="B200:D200"/>
-    <mergeCell ref="W200:AD200"/>
-    <mergeCell ref="AI200:AP200"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="W205:AD205"/>
-    <mergeCell ref="AI205:AP205"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="W190:AD190"/>
-    <mergeCell ref="AI190:AP190"/>
-    <mergeCell ref="B195:D195"/>
-    <mergeCell ref="W195:AD195"/>
-    <mergeCell ref="AI195:AP195"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="W173:AD173"/>
-    <mergeCell ref="AI173:AP173"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="W182:AD182"/>
-    <mergeCell ref="AI182:AP182"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="W162:AD162"/>
-    <mergeCell ref="AI162:AP162"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="W167:AD167"/>
-    <mergeCell ref="AI167:AP167"/>
-    <mergeCell ref="AI97:AP97"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="W144:AD144"/>
-    <mergeCell ref="AI144:AP144"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="W128:AD128"/>
-    <mergeCell ref="AI128:AP128"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="W137:AD137"/>
-    <mergeCell ref="AI137:AP137"/>
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="W21:AD21"/>
-    <mergeCell ref="AI21:AP21"/>
-    <mergeCell ref="W27:AD27"/>
-    <mergeCell ref="AI27:AP27"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A2:C2"/>
     <mergeCell ref="B227:C227"/>
     <mergeCell ref="W227:AD227"/>
     <mergeCell ref="AI227:AP227"/>
@@ -28660,6 +28169,55 @@
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B97:D97"/>
     <mergeCell ref="W97:AD97"/>
+    <mergeCell ref="A1:AR1"/>
+    <mergeCell ref="W21:AD21"/>
+    <mergeCell ref="AI21:AP21"/>
+    <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="AI27:AP27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="AI97:AP97"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="W144:AD144"/>
+    <mergeCell ref="AI144:AP144"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="W128:AD128"/>
+    <mergeCell ref="AI128:AP128"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="W137:AD137"/>
+    <mergeCell ref="AI137:AP137"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="W162:AD162"/>
+    <mergeCell ref="AI162:AP162"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="W167:AD167"/>
+    <mergeCell ref="AI167:AP167"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="W173:AD173"/>
+    <mergeCell ref="AI173:AP173"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="W182:AD182"/>
+    <mergeCell ref="AI182:AP182"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="W190:AD190"/>
+    <mergeCell ref="AI190:AP190"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="W195:AD195"/>
+    <mergeCell ref="AI195:AP195"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="W200:AD200"/>
+    <mergeCell ref="AI200:AP200"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="W205:AD205"/>
+    <mergeCell ref="AI205:AP205"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="W215:AD215"/>
+    <mergeCell ref="AI215:AP215"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="W210:AD210"/>
+    <mergeCell ref="AI210:AP210"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="H175:H179 H217:J224">
